--- a/code/outputs/P2_summary_true_table.xlsx
+++ b/code/outputs/P2_summary_true_table.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>

--- a/code/outputs/P2_summary_true_table.xlsx
+++ b/code/outputs/P2_summary_true_table.xlsx
@@ -43,7 +43,7 @@
     <t>§ 275.0-7_P2</t>
   </si>
   <si>
-    <t>p2_true_table.json</t>
+    <t>documents_true_table.json</t>
   </si>
 </sst>
 </file>
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>22</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -452,13 +452,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -472,13 +472,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
